--- a/Session/Results.xlsx
+++ b/Session/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\tolist\Session\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF6DACF7-1FD2-4EE1-8C30-B07A8213FEED}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F011989-C5D8-423F-A748-EBCB159934DA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-6228" yWindow="-17388" windowWidth="30936" windowHeight="16896" xr2:uid="{3E241226-FF16-4964-94FB-CAE65E5C59B0}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
   <si>
     <t>Usless</t>
   </si>
@@ -46,6 +46,36 @@
   </si>
   <si>
     <t>average</t>
+  </si>
+  <si>
+    <t>FakeHr</t>
+  </si>
+  <si>
+    <t>OneLoop</t>
+  </si>
+  <si>
+    <t>CPU time (ms) for ProcessApplication</t>
+  </si>
+  <si>
+    <t>oneLoop</t>
+  </si>
+  <si>
+    <t>IO bound</t>
+  </si>
+  <si>
+    <t>CPU bound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Memory </t>
+  </si>
+  <si>
+    <t>285KB</t>
+  </si>
+  <si>
+    <t>217 MB</t>
+  </si>
+  <si>
+    <t>216MB</t>
   </si>
 </sst>
 </file>
@@ -81,8 +111,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -397,53 +433,248 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95C82F98-76BC-449E-AE6E-1C705BAD572B}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="13.578125" customWidth="1"/>
+    <col min="6" max="6" width="30.41796875" customWidth="1"/>
+    <col min="7" max="7" width="21.05078125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B1">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2">
         <v>1</v>
       </c>
-      <c r="C1">
+      <c r="C2">
         <v>2</v>
       </c>
-      <c r="D1">
+      <c r="D2">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>9.7230000000000008</v>
+      </c>
+      <c r="C3">
+        <v>8.7460000000000004</v>
+      </c>
+      <c r="D3">
+        <v>8.3859999999999992</v>
+      </c>
+      <c r="E3" s="3">
+        <f>AVERAGE(B3:D3)</f>
+        <v>8.9516666666666662</v>
+      </c>
+      <c r="F3">
+        <v>5431</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>10.789</v>
+      </c>
+      <c r="C4">
+        <v>9.7110000000000003</v>
+      </c>
+      <c r="D4">
+        <v>9.6660000000000004</v>
+      </c>
+      <c r="E4" s="3">
+        <f t="shared" ref="E4:E6" si="0">AVERAGE(B4:D4)</f>
+        <v>10.055333333333333</v>
+      </c>
+      <c r="F4">
+        <v>6740</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="s">
+      <c r="B5">
+        <v>9.4390000000000001</v>
+      </c>
+      <c r="C5">
+        <v>9.673</v>
+      </c>
+      <c r="D5">
+        <v>10.412000000000001</v>
+      </c>
+      <c r="E5" s="3">
+        <f t="shared" si="0"/>
+        <v>9.841333333333333</v>
+      </c>
+      <c r="F5">
+        <v>6685</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
         <v>3</v>
       </c>
+      <c r="B6">
+        <v>10.381</v>
+      </c>
+      <c r="C6">
+        <v>10.717000000000001</v>
+      </c>
+      <c r="D6">
+        <v>10.406000000000001</v>
+      </c>
+      <c r="E6" s="3">
+        <f t="shared" si="0"/>
+        <v>10.501333333333333</v>
+      </c>
+      <c r="F6">
+        <v>6725</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="1">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1">
+        <v>3</v>
+      </c>
+      <c r="E11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="C12" s="1">
+        <v>8.43</v>
+      </c>
+      <c r="D12" s="1">
+        <v>8.76</v>
+      </c>
+      <c r="E12" s="2">
+        <f>AVERAGE(B12:D12)</f>
+        <v>8.5633333333333326</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="1">
+        <v>85.47</v>
+      </c>
+      <c r="C13" s="1">
+        <v>86</v>
+      </c>
+      <c r="D13" s="1">
+        <v>85</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" ref="E13:E15" si="1">AVERAGE(B13:D13)</f>
+        <v>85.490000000000009</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="1">
+        <v>54.5</v>
+      </c>
+      <c r="C14" s="1">
+        <v>53.78</v>
+      </c>
+      <c r="D14" s="1">
+        <v>53.78</v>
+      </c>
+      <c r="E14" s="2">
+        <f t="shared" si="1"/>
+        <v>54.02</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="1">
+        <v>26</v>
+      </c>
+      <c r="C15" s="1">
+        <v>27</v>
+      </c>
+      <c r="D15" s="1">
+        <v>26</v>
+      </c>
+      <c r="E15" s="2">
+        <f t="shared" si="1"/>
+        <v>26.333333333333332</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A10:F10"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
